--- a/Documentation_0.3_skill-trees.xlsx
+++ b/Documentation_0.3_skill-trees.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3556AD7-B816-4059-96B4-7D507225830D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="8520" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -20,18 +21,23 @@
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId6"/>
     <sheet name="Religions" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="901">
   <si>
     <t>physical</t>
   </si>
@@ -2728,12 +2734,18 @@
   </si>
   <si>
     <t>When unit drops below 50% health, increases Spd/Atk by two.</t>
+  </si>
+  <si>
+    <t>Bleed: Target takes damage = 15% of unit's Strength.</t>
+  </si>
+  <si>
+    <t>Poison: Target takes damage = 15% of unit's Focus.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3748,11 +3760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,7 +4324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -9002,11 +9014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9353,7 +9365,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>52</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -9431,7 +9443,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>617</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -9901,11 +9913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
@@ -14368,7 +14380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -16032,11 +16044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A31:A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16314,7 +16326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">

--- a/Documentation_0.3_skill-trees.xlsx
+++ b/Documentation_0.3_skill-trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3556AD7-B816-4059-96B4-7D507225830D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D2DF7-B4F6-415D-9969-38AEC5E86350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9018,7 +9018,7 @@
   <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation_0.3_skill-trees.xlsx
+++ b/Documentation_0.3_skill-trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\monogame-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D2DF7-B4F6-415D-9969-38AEC5E86350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECA564-1227-47F5-A53E-8CD1AE7B8D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="1410" windowWidth="25650" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="919">
   <si>
     <t>physical</t>
   </si>
@@ -2740,13 +2740,67 @@
   </si>
   <si>
     <t>Poison: Target takes damage = 15% of unit's Focus.</t>
+  </si>
+  <si>
+    <t>New Modifiers</t>
+  </si>
+  <si>
+    <t>8/16</t>
+  </si>
+  <si>
+    <t>8/15</t>
+  </si>
+  <si>
+    <t>8/14</t>
+  </si>
+  <si>
+    <t>8/13</t>
+  </si>
+  <si>
+    <t>8/12</t>
+  </si>
+  <si>
+    <t>8/11</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t>8/8</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <t>16/8</t>
+  </si>
+  <si>
+    <t>15/8</t>
+  </si>
+  <si>
+    <t>14/8</t>
+  </si>
+  <si>
+    <t>13/8</t>
+  </si>
+  <si>
+    <t>12/8</t>
+  </si>
+  <si>
+    <t>11/8</t>
+  </si>
+  <si>
+    <t>10/8</t>
+  </si>
+  <si>
+    <t>9/8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2810,6 +2864,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -3763,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4328,7 +4388,7 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
@@ -9017,8 +9077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9606,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>729</v>
       </c>
@@ -9615,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>730</v>
       </c>
@@ -9624,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>731</v>
       </c>
@@ -9633,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>732</v>
       </c>
@@ -9642,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>733</v>
       </c>
@@ -9651,7 +9711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>816</v>
       </c>
@@ -9660,12 +9720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>-10</v>
       </c>
@@ -9676,8 +9739,9 @@
         <f>2/8</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F89" s="37"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>-9</v>
       </c>
@@ -9688,8 +9752,9 @@
         <f>1/3.75</f>
         <v>0.26666666666666666</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F90" s="37"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-8</v>
       </c>
@@ -9700,8 +9765,14 @@
         <f>1/3.5</f>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E91" s="78" t="s">
+        <v>902</v>
+      </c>
+      <c r="F91" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-7</v>
       </c>
@@ -9712,8 +9783,14 @@
         <f>1/3.25</f>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E92" s="78" t="s">
+        <v>903</v>
+      </c>
+      <c r="F92" s="37">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-6</v>
       </c>
@@ -9724,8 +9801,14 @@
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E93" s="78" t="s">
+        <v>904</v>
+      </c>
+      <c r="F93" s="37">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-5</v>
       </c>
@@ -9736,8 +9819,14 @@
         <f>1/2.75</f>
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E94" s="78" t="s">
+        <v>905</v>
+      </c>
+      <c r="F94" s="37">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-4</v>
       </c>
@@ -9748,8 +9837,14 @@
         <f>1/2.5</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E95" s="78" t="s">
+        <v>906</v>
+      </c>
+      <c r="F95" s="37">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-3</v>
       </c>
@@ -9760,8 +9855,14 @@
         <f>1/2.25</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E96" s="78" t="s">
+        <v>907</v>
+      </c>
+      <c r="F96" s="37">
+        <v>0.72719999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-2</v>
       </c>
@@ -9772,8 +9873,14 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E97" s="78" t="s">
+        <v>910</v>
+      </c>
+      <c r="F97" s="37">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-1</v>
       </c>
@@ -9784,8 +9891,14 @@
         <f>1/1.5</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E98" s="78" t="s">
+        <v>908</v>
+      </c>
+      <c r="F98" s="37">
+        <v>0.88880000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -9795,8 +9908,14 @@
       <c r="C99" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E99" s="78" t="s">
+        <v>909</v>
+      </c>
+      <c r="F99" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -9806,8 +9925,14 @@
       <c r="C100" s="37">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E100" s="78" t="s">
+        <v>918</v>
+      </c>
+      <c r="F100" s="37">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -9817,8 +9942,14 @@
       <c r="C101" s="37">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E101" s="78" t="s">
+        <v>917</v>
+      </c>
+      <c r="F101" s="37">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -9828,8 +9959,14 @@
       <c r="C102" s="37">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E102" s="78" t="s">
+        <v>916</v>
+      </c>
+      <c r="F102" s="37">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -9839,8 +9976,14 @@
       <c r="C103" s="37">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E103" s="78" t="s">
+        <v>915</v>
+      </c>
+      <c r="F103" s="37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -9850,8 +9993,14 @@
       <c r="C104" s="37">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E104" s="78" t="s">
+        <v>914</v>
+      </c>
+      <c r="F104" s="37">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -9861,8 +10010,14 @@
       <c r="C105" s="37">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E105" s="78" t="s">
+        <v>913</v>
+      </c>
+      <c r="F105" s="37">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -9872,8 +10027,14 @@
       <c r="C106" s="37">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E106" s="78" t="s">
+        <v>912</v>
+      </c>
+      <c r="F106" s="37">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -9883,8 +10044,14 @@
       <c r="C107" s="37">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E107" s="78" t="s">
+        <v>911</v>
+      </c>
+      <c r="F107" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9</v>
       </c>
@@ -9894,8 +10061,10 @@
       <c r="C108" s="37">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E108" s="78"/>
+      <c r="F108" s="37"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
@@ -9905,8 +10074,11 @@
       <c r="C109" s="37">
         <v>4</v>
       </c>
+      <c r="E109" s="78"/>
+      <c r="F109" s="37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9916,9 +10088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N194"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation_0.3_skill-trees.xlsx
+++ b/Documentation_0.3_skill-trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\monogame-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Git\monogame-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDECA564-1227-47F5-A53E-8CD1AE7B8D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6FAC38-4772-4614-A16C-28956A294567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1410" windowWidth="25650" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="920">
   <si>
     <t>physical</t>
   </si>
@@ -2794,6 +2794,9 @@
   </si>
   <si>
     <t>9/8</t>
+  </si>
+  <si>
+    <t>Revenge</t>
   </si>
 </sst>
 </file>
@@ -3823,93 +3826,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>130</v>
@@ -3933,40 +3936,40 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="30"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>188</v>
       </c>
       <c r="E25" s="29"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>189</v>
       </c>
       <c r="D26" s="29"/>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>187</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
         <v>186</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="G28" s="30"/>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>114</v>
       </c>
@@ -3985,126 +3988,126 @@
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>205</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>20</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>30</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>40</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>50</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>70</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>80</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>90</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>100</v>
       </c>
@@ -4247,132 +4250,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B84" s="44" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B85" s="40" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B86" s="41" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B87" s="45" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B88" s="43" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>337</v>
       </c>
@@ -4388,21 +4391,21 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109:I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="9" width="5.28515625" style="28" customWidth="1"/>
+    <col min="4" max="9" width="5.26953125" style="28" customWidth="1"/>
     <col min="10" max="10" width="6" style="28" customWidth="1"/>
-    <col min="11" max="15" width="15.7109375" customWidth="1"/>
+    <col min="11" max="15" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -5379,7 +5382,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>188</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>188</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>188</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>188</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>188</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -6825,10 +6828,10 @@
         <v>590</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C67" s="30"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>189</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>189</v>
       </c>
@@ -7161,7 +7164,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>189</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>189</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -7500,7 +7503,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>186</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>186</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>186</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>186</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>186</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -8358,7 +8361,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -8751,7 +8754,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>114</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>114</v>
       </c>
@@ -8967,7 +8970,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D127" s="46">
         <f t="shared" ref="D127:I127" si="9">SUM(D3:D120)</f>
         <v>10695</v>
@@ -9029,7 +9032,7 @@
         <v>6877</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D128" s="28">
         <f t="shared" ref="D128:I128" si="10">AVERAGE(D3:D120)</f>
         <v>95.491071428571431</v>
@@ -9081,19 +9084,19 @@
       <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>453</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>454</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>455</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>456</v>
       </c>
@@ -9125,7 +9128,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>457</v>
       </c>
@@ -9133,17 +9136,17 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="32" t="s">
         <v>115</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="33" t="s">
         <v>188</v>
       </c>
@@ -9159,252 +9162,252 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="53" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="54"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B19" s="54"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>671</v>
       </c>
       <c r="B20" s="54"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>683</v>
       </c>
       <c r="B21" s="54"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="54" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="54" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="54" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>675</v>
       </c>
       <c r="B25" s="54"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="54" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" s="54" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>678</v>
       </c>
       <c r="B28" s="54"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="54" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" s="54" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="54"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>724</v>
       </c>
       <c r="C50">
-        <f>COUNTIF(Skills!J2:J122, "*")</f>
-        <v>115</v>
+        <f>COUNTIF(Skills!J2:J123, "*")</f>
+        <v>116</v>
       </c>
       <c r="D50">
-        <f>COUNT(Skills!G2:G122)</f>
-        <v>115</v>
+        <f>COUNT(Skills!G2:G123)</f>
+        <v>116</v>
       </c>
       <c r="F50" s="72" t="s">
         <v>809</v>
       </c>
       <c r="G50" s="73"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F51" s="74"/>
       <c r="G51" s="75"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>660</v>
       </c>
       <c r="C52">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*damage*")</f>
-        <v>90</v>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*damage*")</f>
+        <v>91</v>
       </c>
       <c r="F52" s="74" t="s">
         <v>813</v>
       </c>
       <c r="G52" s="75">
-        <f>COUNTIF(Skills!$G$2:$G$122, "1")</f>
+        <f>COUNTIF(Skills!$G$2:$G$123, "1")</f>
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>717</v>
       </c>
       <c r="C53">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*heal*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*heal*")</f>
         <v>11</v>
       </c>
       <c r="F53" s="74" t="s">
         <v>810</v>
       </c>
       <c r="G53" s="75">
-        <f>COUNTIF(Skills!$G$2:$G$122, "2")</f>
+        <f>COUNTIF(Skills!$G$2:$G$123, "2")</f>
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>716</v>
       </c>
       <c r="C54">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*shield*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*shield*")</f>
         <v>7</v>
       </c>
       <c r="F54" s="74" t="s">
         <v>811</v>
       </c>
       <c r="G54" s="75">
-        <f>COUNTIF(Skills!$G$2:$G$122, "3")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f>COUNTIF(Skills!$G$2:$G$123, "3")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>661</v>
       </c>
       <c r="C55">
-        <f>COUNTIF(Skills!$J$2:$J$122, "* buff*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "* buff*")</f>
         <v>15</v>
       </c>
       <c r="F55" s="76" t="s">
         <v>812</v>
       </c>
       <c r="G55" s="77">
-        <f>COUNTIF(Skills!$G$2:$G$122, "4")</f>
+        <f>COUNTIF(Skills!$G$2:$G$123, "4")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>662</v>
       </c>
       <c r="C56">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*debuff*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*debuff*")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>725</v>
       </c>
@@ -9413,12 +9416,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>726</v>
       </c>
       <c r="C58">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*bleed*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*bleed*")</f>
         <v>12</v>
       </c>
       <c r="E58">
@@ -9428,12 +9431,12 @@
         <v>899</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>727</v>
       </c>
       <c r="C59">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*stun*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*stun*")</f>
         <v>10</v>
       </c>
       <c r="E59">
@@ -9443,12 +9446,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>728</v>
       </c>
       <c r="C60">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*sleep*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*sleep*")</f>
         <v>5</v>
       </c>
       <c r="E60">
@@ -9458,13 +9461,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>729</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*silence*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*silence*")</f>
         <v>9</v>
       </c>
       <c r="E61">
@@ -9474,13 +9477,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>730</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*burn*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*burn*")</f>
         <v>11</v>
       </c>
       <c r="E62">
@@ -9490,13 +9493,13 @@
         <v>618</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>731</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*poison*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*poison*")</f>
         <v>8</v>
       </c>
       <c r="E63">
@@ -9506,13 +9509,13 @@
         <v>900</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>732</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*bind*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*bind*")</f>
         <v>2</v>
       </c>
       <c r="E64">
@@ -9522,13 +9525,13 @@
         <v>599</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>733</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*curse*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*curse*")</f>
         <v>2</v>
       </c>
       <c r="E65">
@@ -9538,99 +9541,99 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>816</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*energy*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*energy*")</f>
         <v>3</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>737</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67">
-        <f>COUNTIF(Skills!$J$2:$J$122, "*move*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$123, "*move*")</f>
         <v>2</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B68" s="17"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>806</v>
       </c>
       <c r="C69">
-        <f>COUNTIF(Skills!J134:J169, "**")</f>
+        <f>COUNTIF(Skills!J135:J170, "**")</f>
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>660</v>
       </c>
       <c r="C71">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*damage*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*damage*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>798</v>
       </c>
       <c r="C72">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*immune*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*immune*")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>717</v>
       </c>
       <c r="C73">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*heal*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*heal*")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>716</v>
       </c>
       <c r="C74">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*shield*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*shield*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>661</v>
       </c>
       <c r="C75">
-        <f>COUNTIF(Skills!$J$134:$J$169, "* buff*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "* buff*")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>662</v>
       </c>
       <c r="C76">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*debuff*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*debuff*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>725</v>
       </c>
@@ -9639,88 +9642,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>726</v>
       </c>
       <c r="C78">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*bleed*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*bleed*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>727</v>
       </c>
       <c r="C79">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*stun*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*stun*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>728</v>
       </c>
       <c r="C80">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*sleep*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*sleep*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>729</v>
       </c>
       <c r="C81">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*silence*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*silence*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>730</v>
       </c>
       <c r="C82">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*burn*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*burn*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>731</v>
       </c>
       <c r="C83">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*poison*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*poison*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>732</v>
       </c>
       <c r="C84">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*bind*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*bind*")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>733</v>
       </c>
       <c r="C85">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*curse*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*curse*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>816</v>
       </c>
       <c r="C86">
-        <f>COUNTIF(Skills!$J$134:$J$169, "*energy*")</f>
+        <f>COUNTIF(Skills!$J$135:$J$170, "*energy*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>851</v>
       </c>
@@ -9728,7 +9731,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="16">
         <v>-10</v>
       </c>
@@ -9741,7 +9744,7 @@
       </c>
       <c r="F89" s="37"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="16">
         <v>-9</v>
       </c>
@@ -9754,7 +9757,7 @@
       </c>
       <c r="F90" s="37"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>-8</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>-7</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v>0.5333</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>-6</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>0.57140000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>-5</v>
       </c>
@@ -9826,7 +9829,7 @@
         <v>0.61539999999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>-4</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>-3</v>
       </c>
@@ -9862,7 +9865,7 @@
         <v>0.72719999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>-2</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>-1</v>
       </c>
@@ -9898,7 +9901,7 @@
         <v>0.88880000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>4</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>5</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>6</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>7</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>8</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>9</v>
       </c>
@@ -10064,7 +10067,7 @@
       <c r="E108" s="78"/>
       <c r="F108" s="37"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>10</v>
       </c>
@@ -10086,25 +10089,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N194"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="22.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" style="49" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="22.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="7.7265625" style="49" customWidth="1"/>
     <col min="7" max="9" width="10" style="49" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
+    <col min="10" max="10" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>165</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -10169,7 +10172,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
         <v>541</v>
       </c>
@@ -10199,7 +10202,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
         <v>815</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>753</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="63" t="s">
         <v>417</v>
       </c>
@@ -10282,14 +10285,14 @@
         <v>10</v>
       </c>
       <c r="I6" s="49">
-        <f t="shared" ref="I6:I69" si="0">(E6+H6+(IF(ISNUMBER(F6),10*(F6-1),0)))/G6</f>
+        <f t="shared" ref="I6:I70" si="0">(E6+H6+(IF(ISNUMBER(F6),10*(F6-1),0)))/G6</f>
         <v>65</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="63" t="s">
         <v>775</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>474</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
         <v>533</v>
       </c>
@@ -10379,7 +10382,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
         <v>759</v>
       </c>
@@ -10409,7 +10412,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
         <v>820</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
         <v>442</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
         <v>664</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
         <v>536</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
         <v>751</v>
       </c>
@@ -10559,7 +10562,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="63" t="s">
         <v>632</v>
       </c>
@@ -10589,7 +10592,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
         <v>654</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B18" s="63" t="s">
         <v>686</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19" s="63" t="s">
         <v>828</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" s="63" t="s">
         <v>645</v>
       </c>
@@ -10709,7 +10712,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="63" t="s">
         <v>505</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22" s="63" t="s">
         <v>646</v>
       </c>
@@ -10769,9 +10772,9 @@
         <v>713</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="63" t="s">
-        <v>587</v>
+        <v>919</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>585</v>
@@ -10789,22 +10792,22 @@
         <v>3</v>
       </c>
       <c r="I23" s="49" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I23" si="1">(E23+H23+(IF(ISNUMBER(F23),10*(F23-1),0)))/G23</f>
         <v>#VALUE!</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="63" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>586</v>
@@ -10823,202 +10826,198 @@
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="63" t="s">
-        <v>504</v>
+        <v>615</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>835</v>
+        <v>616</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E25" s="49">
         <v>0</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>439</v>
+      <c r="E25" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F25" s="49">
+        <v>1</v>
       </c>
       <c r="G25" s="49">
         <v>3</v>
       </c>
-      <c r="H25" s="49">
+      <c r="I25" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E26" s="49">
+        <v>0</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G26" s="49">
+        <v>3</v>
+      </c>
+      <c r="H26" s="49">
         <v>95</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I26" s="49">
         <f t="shared" si="0"/>
         <v>31.666666666666668</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="63" t="s">
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="63" t="s">
         <v>685</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E27" s="49">
         <v>0</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F27" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G27" s="49">
         <v>4</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I27" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B28" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E28" s="49">
         <v>50</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F28" s="49">
         <v>1</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G28" s="49">
         <v>1</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H28" s="49">
         <v>0</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I28" s="49">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="64" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
+      <c r="B29" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E29" s="49">
         <v>55</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F29" s="49">
         <v>2</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G29" s="49">
         <v>1</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H29" s="49">
         <v>0</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I29" s="49">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E29" s="49">
-        <v>0</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>621</v>
-      </c>
-      <c r="G29" s="49">
-        <v>1</v>
-      </c>
-      <c r="H29" s="49">
-        <v>40</v>
-      </c>
-      <c r="I29" s="49">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="57"/>
       <c r="B30" s="64" t="s">
-        <v>754</v>
+        <v>620</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>746</v>
+        <v>841</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" s="49">
         <v>0</v>
       </c>
-      <c r="E30" s="49">
-        <v>60</v>
-      </c>
-      <c r="F30" s="49">
+      <c r="F30" s="49" t="s">
+        <v>621</v>
+      </c>
+      <c r="G30" s="49">
         <v>1</v>
       </c>
-      <c r="G30" s="49">
-        <v>2</v>
-      </c>
       <c r="H30" s="49">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I30" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="57"/>
       <c r="B31" s="64" t="s">
-        <v>508</v>
+        <v>754</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>614</v>
+        <v>746</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="49">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F31" s="49">
         <v>1</v>
@@ -11027,29 +11026,29 @@
         <v>2</v>
       </c>
       <c r="H31" s="49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I31" s="49">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="57"/>
       <c r="B32" s="64" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>838</v>
+        <v>614</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="49">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F32" s="49">
         <v>1</v>
@@ -11058,54 +11057,54 @@
         <v>2</v>
       </c>
       <c r="H32" s="49">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I32" s="49">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="57"/>
       <c r="B33" s="64" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>547</v>
+        <v>838</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="49">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F33" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="49">
         <v>2</v>
       </c>
       <c r="H33" s="49">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I33" s="49">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="57"/>
       <c r="B34" s="64" t="s">
-        <v>598</v>
+        <v>523</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>110</v>
+        <v>547</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>0</v>
@@ -11114,35 +11113,35 @@
         <v>55</v>
       </c>
       <c r="F34" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="49">
         <v>2</v>
       </c>
       <c r="H34" s="49">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I34" s="49">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>60</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="57"/>
       <c r="B35" s="64" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>844</v>
+        <v>110</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="49">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F35" s="49">
         <v>1</v>
@@ -11151,23 +11150,23 @@
         <v>2</v>
       </c>
       <c r="H35" s="49">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I35" s="49">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>42.5</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="57"/>
       <c r="B36" s="64" t="s">
-        <v>633</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>634</v>
+        <v>625</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>844</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>0</v>
@@ -11182,29 +11181,29 @@
         <v>2</v>
       </c>
       <c r="H36" s="49">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I36" s="49">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="57"/>
       <c r="B37" s="64" t="s">
-        <v>781</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>780</v>
+        <v>633</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>634</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="49">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F37" s="49">
         <v>1</v>
@@ -11213,32 +11212,32 @@
         <v>2</v>
       </c>
       <c r="H37" s="49">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I37" s="49">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="57"/>
       <c r="B38" s="64" t="s">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>839</v>
+        <v>780</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E38" s="49">
         <v>40</v>
       </c>
       <c r="F38" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="49">
         <v>2</v>
@@ -11248,50 +11247,50 @@
       </c>
       <c r="I38" s="49">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="57"/>
       <c r="B39" s="64" t="s">
-        <v>444</v>
+        <v>743</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="E39" s="49">
-        <v>0</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>439</v>
+        <v>40</v>
+      </c>
+      <c r="F39" s="49">
+        <v>2</v>
       </c>
       <c r="G39" s="49">
         <v>2</v>
       </c>
       <c r="H39" s="49">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I39" s="49">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="57"/>
       <c r="B40" s="64" t="s">
-        <v>761</v>
+        <v>444</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>438</v>
@@ -11306,23 +11305,23 @@
         <v>2</v>
       </c>
       <c r="H40" s="49">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I40" s="49">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="57"/>
       <c r="B41" s="64" t="s">
-        <v>437</v>
+        <v>761</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>622</v>
+        <v>842</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>438</v>
@@ -11337,54 +11336,54 @@
         <v>2</v>
       </c>
       <c r="H41" s="49">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I41" s="49">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="57"/>
       <c r="B42" s="64" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="E42" s="49">
-        <v>40</v>
-      </c>
-      <c r="F42" s="49">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G42" s="49">
         <v>2</v>
       </c>
-      <c r="G42" s="49">
-        <v>3</v>
-      </c>
       <c r="H42" s="49">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I42" s="49">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
+        <v>50</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="57"/>
       <c r="B43" s="64" t="s">
-        <v>748</v>
+        <v>512</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>845</v>
+        <v>588</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
@@ -11399,216 +11398,216 @@
         <v>3</v>
       </c>
       <c r="H43" s="49">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I43" s="49">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="57"/>
       <c r="B44" s="64" t="s">
-        <v>529</v>
+        <v>748</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="E44" s="49">
-        <v>0</v>
-      </c>
-      <c r="F44" s="49" t="s">
-        <v>439</v>
+        <v>40</v>
+      </c>
+      <c r="F44" s="49">
+        <v>2</v>
       </c>
       <c r="G44" s="49">
         <v>3</v>
       </c>
       <c r="H44" s="49">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I44" s="49">
         <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="57"/>
       <c r="B45" s="64" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>418</v>
+        <v>846</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="49">
         <v>0</v>
       </c>
-      <c r="E45" s="49">
-        <v>130</v>
-      </c>
-      <c r="F45" s="49">
-        <v>1</v>
+      <c r="F45" s="49" t="s">
+        <v>439</v>
       </c>
       <c r="G45" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="49">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I45" s="49">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>744</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="57"/>
+      <c r="B46" s="64" t="s">
+        <v>525</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>745</v>
+        <v>418</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="E46" s="49">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F46" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="49">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H46" s="49">
+        <v>30</v>
       </c>
       <c r="I46" s="49">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="58" t="s">
+        <v>188</v>
+      </c>
       <c r="B47" s="65" t="s">
-        <v>506</v>
+        <v>744</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>818</v>
+        <v>745</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" s="49">
         <v>0</v>
       </c>
-      <c r="E47" s="49">
-        <v>20</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>586</v>
+      <c r="F47" s="49">
+        <v>2</v>
       </c>
       <c r="G47" s="49">
         <v>1</v>
       </c>
-      <c r="H47" s="49">
-        <v>80</v>
-      </c>
       <c r="I47" s="49">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="58"/>
       <c r="B48" s="65" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>499</v>
+        <v>818</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E48" s="49">
-        <v>45</v>
-      </c>
-      <c r="F48" s="49">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>586</v>
       </c>
       <c r="G48" s="49">
         <v>1</v>
       </c>
       <c r="H48" s="49">
-        <f>E48/2</f>
-        <v>22.5</v>
+        <v>80</v>
       </c>
       <c r="I48" s="49">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>100</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="58"/>
       <c r="B49" s="65" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>746</v>
+        <v>499</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E49" s="49">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F49" s="49">
         <v>1</v>
       </c>
       <c r="G49" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="49">
-        <v>20</v>
+        <f>E49/2</f>
+        <v>22.5</v>
       </c>
       <c r="I49" s="49">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>67.5</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="58"/>
       <c r="B50" s="65" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>565</v>
+        <v>746</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E50" s="49">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F50" s="49">
         <v>1</v>
@@ -11617,63 +11616,83 @@
         <v>2</v>
       </c>
       <c r="H50" s="49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I50" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="K50" s="17"/>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="58"/>
       <c r="B51" s="65" t="s">
-        <v>626</v>
+        <v>500</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E51" s="49">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F51" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="49">
         <v>2</v>
       </c>
       <c r="H51" s="49">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I51" s="49">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="58"/>
       <c r="B52" s="65" t="s">
-        <v>528</v>
-      </c>
-      <c r="I52" s="49" t="e">
+        <v>626</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="49">
+        <v>60</v>
+      </c>
+      <c r="F52" s="49">
+        <v>2</v>
+      </c>
+      <c r="G52" s="49">
+        <v>2</v>
+      </c>
+      <c r="H52" s="49">
+        <v>30</v>
+      </c>
+      <c r="I52" s="49">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="58"/>
       <c r="B53" s="65" t="s">
-        <v>819</v>
+        <v>528</v>
       </c>
       <c r="I53" s="49" t="e">
         <f t="shared" si="0"/>
@@ -11681,336 +11700,316 @@
       </c>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="58"/>
       <c r="B54" s="65" t="s">
+        <v>819</v>
+      </c>
+      <c r="I54" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="58"/>
+      <c r="B55" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E55" s="49">
         <v>60</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F55" s="49">
         <v>2</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G55" s="49">
         <v>2</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H55" s="49">
         <v>10</v>
       </c>
-      <c r="I54" s="49">
+      <c r="I55" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="65" t="s">
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="58"/>
+      <c r="B56" s="65" t="s">
         <v>777</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E56" s="49">
         <v>65</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F56" s="49">
         <v>2</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G56" s="49">
         <v>2</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H56" s="49">
         <v>20</v>
       </c>
-      <c r="I55" s="49">
+      <c r="I56" s="49">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="65" t="s">
+      <c r="K56" s="17"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="58"/>
+      <c r="B57" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E57" s="49">
         <v>70</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F57" s="49">
         <v>1</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G57" s="49">
         <v>2</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H57" s="49">
         <v>30</v>
       </c>
-      <c r="I56" s="49">
+      <c r="I57" s="49">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="65" t="s">
+    <row r="58" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="58"/>
+      <c r="B58" s="65" t="s">
         <v>764</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E58" s="49">
         <v>0</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F58" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G58" s="49">
         <v>3</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H58" s="49">
         <v>220</v>
       </c>
-      <c r="I57" s="49">
+      <c r="I58" s="49">
         <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="K57" s="17"/>
-    </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="65" t="s">
+      <c r="K58" s="17"/>
+    </row>
+    <row r="59" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="58"/>
+      <c r="B59" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E59" s="49">
         <v>0</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F59" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="G58" s="49">
+      <c r="G59" s="49">
         <v>3</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H59" s="49">
         <f>15*8</f>
         <v>120</v>
       </c>
-      <c r="I58" s="49">
+      <c r="I59" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="65" t="s">
+    <row r="60" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="58"/>
+      <c r="B60" s="65" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E60" s="49">
         <v>0</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F60" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G60" s="49">
         <v>3</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H60" s="49">
         <f>50*4</f>
         <v>200</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I60" s="49">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="65" t="s">
-        <v>611</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="49">
-        <v>95</v>
-      </c>
-      <c r="F60" s="49">
-        <v>1</v>
-      </c>
-      <c r="G60" s="49">
-        <v>3</v>
-      </c>
-      <c r="H60" s="49">
-        <v>30</v>
-      </c>
-      <c r="I60" s="49">
-        <f>(E60+H60+(IF(ISNUMBER(F60),10*(F60-1),0)))/G60</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="58"/>
       <c r="B61" s="65" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>595</v>
+        <v>848</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="49">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F61" s="49">
         <v>1</v>
       </c>
       <c r="G61" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="49">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I61" s="49">
         <f>(E61+H61+(IF(ISNUMBER(F61),10*(F61-1),0)))/G61</f>
-        <v>42.5</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>821</v>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="58"/>
+      <c r="B62" s="65" t="s">
+        <v>594</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>438</v>
+        <v>595</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="49">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F62" s="49">
         <v>1</v>
       </c>
       <c r="G62" s="49">
+        <v>4</v>
+      </c>
+      <c r="H62" s="49">
+        <v>50</v>
+      </c>
+      <c r="I62" s="49">
+        <f>(E62+H62+(IF(ISNUMBER(F62),10*(F62-1),0)))/G62</f>
+        <v>42.5</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>821</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="49">
+        <v>55</v>
+      </c>
+      <c r="F63" s="49">
         <v>1</v>
       </c>
-      <c r="H62" s="49">
+      <c r="G63" s="49">
+        <v>1</v>
+      </c>
+      <c r="H63" s="49">
         <v>0</v>
       </c>
-      <c r="I62" s="49">
+      <c r="I63" s="49">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="49">
-        <v>80</v>
-      </c>
-      <c r="F63" s="49">
-        <v>2</v>
-      </c>
-      <c r="G63" s="49">
-        <v>2</v>
-      </c>
-      <c r="H63" s="49">
-        <v>0</v>
-      </c>
-      <c r="I63" s="49">
-        <f>(E63+H63+(IF(ISNUMBER(F63),10*(F63-1),0)))/G63</f>
-        <v>45</v>
-      </c>
       <c r="J63" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="59"/>
       <c r="B64" s="67" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>438</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E64" s="49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F64" s="49">
         <v>2</v>
@@ -12023,193 +12022,192 @@
       </c>
       <c r="I64" s="49">
         <f>(E64+H64+(IF(ISNUMBER(F64),10*(F64-1),0)))/G64</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="59"/>
       <c r="B65" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="49">
+        <v>70</v>
+      </c>
+      <c r="F65" s="49">
+        <v>2</v>
+      </c>
+      <c r="G65" s="49">
+        <v>2</v>
+      </c>
+      <c r="H65" s="49">
+        <v>0</v>
+      </c>
+      <c r="I65" s="49">
+        <f>(E65+H65+(IF(ISNUMBER(F65),10*(F65-1),0)))/G65</f>
+        <v>40</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="59"/>
+      <c r="B66" s="67" t="s">
         <v>787</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E66" s="49">
         <v>0</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F66" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="G65" s="49">
+      <c r="G66" s="49">
         <v>1</v>
       </c>
-      <c r="H65" s="49">
+      <c r="H66" s="49">
         <f>10*8</f>
         <v>80</v>
       </c>
-      <c r="I65" s="49">
+      <c r="I66" s="49">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="67" t="s">
+    <row r="67" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="59"/>
+      <c r="B67" s="67" t="s">
         <v>494</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E67" s="49">
         <v>0</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F67" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="49">
+      <c r="G67" s="49">
         <v>1</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H67" s="49">
         <f>200-200</f>
         <v>0</v>
       </c>
-      <c r="I66" s="49">
-        <f>(E66+H66+(IF(ISNUMBER(F66),10*(F66-1),0)))/G66</f>
+      <c r="I67" s="49">
+        <f>(E67+H67+(IF(ISNUMBER(F67),10*(F67-1),0)))/G67</f>
         <v>0</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="67" t="s">
+    <row r="68" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="59"/>
+      <c r="B68" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E68" s="49">
         <v>65</v>
       </c>
-      <c r="F67" s="49">
+      <c r="F68" s="49">
         <v>1</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G68" s="49">
         <v>2</v>
       </c>
-      <c r="H67" s="49">
+      <c r="H68" s="49">
         <v>15</v>
       </c>
-      <c r="I67" s="49">
+      <c r="I68" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="67" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="59"/>
+      <c r="B69" s="67" t="s">
         <v>689</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E69" s="49">
         <v>50</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F69" s="49">
         <v>1</v>
       </c>
-      <c r="G68" s="49">
+      <c r="G69" s="49">
         <v>2</v>
       </c>
-      <c r="H68" s="49">
+      <c r="H69" s="49">
         <v>50</v>
       </c>
-      <c r="I68" s="49">
+      <c r="I69" s="49">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="67" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="59"/>
+      <c r="B70" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="I69" s="49" t="e">
+      <c r="I70" s="49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="49">
-        <v>65</v>
-      </c>
-      <c r="F70" s="49">
-        <v>1</v>
-      </c>
-      <c r="G70" s="49">
-        <v>2</v>
-      </c>
-      <c r="H70" s="49">
-        <f>E70/2</f>
-        <v>32.5</v>
-      </c>
-      <c r="I70" s="49">
-        <f t="shared" ref="I70:I128" si="1">(E70+H70+(IF(ISNUMBER(F70),10*(F70-1),0)))/G70</f>
-        <v>48.75</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="59"/>
       <c r="B71" s="67" t="s">
-        <v>659</v>
+        <v>577</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>747</v>
+        <v>544</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E71" s="49">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F71" s="49">
         <v>1</v>
@@ -12218,350 +12216,351 @@
         <v>2</v>
       </c>
       <c r="H71" s="49">
-        <v>50</v>
+        <f>E71/2</f>
+        <v>32.5</v>
       </c>
       <c r="I71" s="49">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
+        <f t="shared" ref="I71:I129" si="2">(E71+H71+(IF(ISNUMBER(F71),10*(F71-1),0)))/G71</f>
+        <v>48.75</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="59"/>
       <c r="B72" s="67" t="s">
-        <v>789</v>
+        <v>659</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>747</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E72" s="49">
+        <v>45</v>
+      </c>
+      <c r="F72" s="49">
+        <v>1</v>
+      </c>
+      <c r="G72" s="49">
+        <v>2</v>
+      </c>
+      <c r="H72" s="49">
+        <v>50</v>
+      </c>
+      <c r="I72" s="49">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="59"/>
       <c r="B73" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="49">
-        <v>50</v>
-      </c>
-      <c r="F73" s="49">
-        <v>2</v>
-      </c>
-      <c r="G73" s="49">
-        <v>2</v>
-      </c>
-      <c r="I73" s="49">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I73" s="49" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="59"/>
       <c r="B74" s="67" t="s">
-        <v>782</v>
+        <v>629</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="49">
-        <v>30</v>
-      </c>
-      <c r="F74" s="49" t="s">
-        <v>567</v>
+        <v>50</v>
+      </c>
+      <c r="F74" s="49">
+        <v>2</v>
       </c>
       <c r="G74" s="49">
         <v>2</v>
       </c>
-      <c r="H74" s="49">
-        <f>E74*3 + 10*4</f>
-        <v>130</v>
-      </c>
       <c r="I74" s="49">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="59"/>
       <c r="B75" s="67" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>877</v>
+        <v>783</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E75" s="49">
-        <v>50</v>
-      </c>
-      <c r="F75" s="49">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>567</v>
       </c>
       <c r="G75" s="49">
         <v>2</v>
       </c>
       <c r="H75" s="49">
-        <v>20</v>
+        <f>E75*3 + 10*4</f>
+        <v>130</v>
       </c>
       <c r="I75" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="59"/>
       <c r="B76" s="67" t="s">
-        <v>572</v>
+        <v>788</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>573</v>
+        <v>877</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E76" s="49">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F76" s="49">
         <v>2</v>
       </c>
       <c r="G76" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" s="49">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I76" s="49">
-        <f>(E76+H76+(IF(ISNUMBER(F76),10*(F76-1),0)))/G76</f>
-        <v>41.666666666666664</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="59"/>
       <c r="B77" s="67" t="s">
-        <v>480</v>
+        <v>572</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>690</v>
+        <v>573</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E77" s="49">
-        <v>40</v>
-      </c>
-      <c r="F77" s="49" t="s">
-        <v>586</v>
+        <v>65</v>
+      </c>
+      <c r="F77" s="49">
+        <v>2</v>
       </c>
       <c r="G77" s="49">
         <v>3</v>
       </c>
       <c r="H77" s="49">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="I77" s="49">
         <f>(E77+H77+(IF(ISNUMBER(F77),10*(F77-1),0)))/G77</f>
-        <v>70</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="59"/>
       <c r="B78" s="67" t="s">
-        <v>792</v>
+        <v>480</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>793</v>
+        <v>690</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="49">
-        <v>120</v>
-      </c>
-      <c r="F78" s="49">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>586</v>
       </c>
       <c r="G78" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" s="49">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="I78" s="49">
         <f>(E78+H78+(IF(ISNUMBER(F78),10*(F78-1),0)))/G78</f>
-        <v>42.5</v>
+        <v>70</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="68" t="s">
-        <v>643</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="59"/>
+      <c r="B79" s="67" t="s">
+        <v>792</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>644</v>
+        <v>793</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="E79" s="49">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F79" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" s="49">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I79" s="49">
         <f>(E79+H79+(IF(ISNUMBER(F79),10*(F79-1),0)))/G79</f>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="60" t="s">
+        <v>187</v>
+      </c>
       <c r="B80" s="68" t="s">
-        <v>502</v>
+        <v>643</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>878</v>
+        <v>644</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="E80" s="49">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F80" s="49">
         <v>2</v>
       </c>
       <c r="G80" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="49">
-        <f>E80*0.9</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I80" s="49">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f>(E80+H80+(IF(ISNUMBER(F80),10*(F80-1),0)))/G80</f>
+        <v>40</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="60"/>
       <c r="B81" s="68" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>584</v>
+        <v>878</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="49">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F81" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" s="49">
         <v>2</v>
       </c>
       <c r="H81" s="49">
-        <v>60</v>
+        <f>E81*0.9</f>
+        <v>54</v>
       </c>
       <c r="I81" s="49">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="60"/>
       <c r="B82" s="68" t="s">
-        <v>656</v>
+        <v>510</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>880</v>
+        <v>584</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E82" s="49">
         <v>45</v>
       </c>
       <c r="F82" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="49">
         <v>2</v>
       </c>
       <c r="H82" s="49">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I82" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="60"/>
       <c r="B83" s="68" t="s">
-        <v>553</v>
+        <v>656</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>554</v>
+        <v>880</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E83" s="49">
         <v>45</v>
@@ -12573,32 +12572,32 @@
         <v>2</v>
       </c>
       <c r="H83" s="49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I83" s="49">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
+        <f t="shared" si="2"/>
+        <v>52.5</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="60"/>
       <c r="B84" s="68" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>554</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E84" s="49">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F84" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" s="49">
         <v>2</v>
@@ -12607,82 +12606,82 @@
         <v>40</v>
       </c>
       <c r="I84" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.5</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="60"/>
       <c r="B85" s="68" t="s">
-        <v>658</v>
+        <v>589</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>826</v>
+        <v>554</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E85" s="49">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F85" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="49">
         <v>2</v>
       </c>
       <c r="H85" s="49">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I85" s="49">
-        <f>(E85+H85+(IF(ISNUMBER(F85),10*(F85-1),0)))/G85</f>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>47.5</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="60"/>
       <c r="B86" s="68" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>624</v>
+        <v>826</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="E86" s="49">
-        <v>0</v>
-      </c>
-      <c r="F86" s="49" t="s">
-        <v>439</v>
+        <v>50</v>
+      </c>
+      <c r="F86" s="49">
+        <v>2</v>
       </c>
       <c r="G86" s="49">
         <v>2</v>
       </c>
       <c r="H86" s="49">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I86" s="49">
         <f>(E86+H86+(IF(ISNUMBER(F86),10*(F86-1),0)))/G86</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="60"/>
       <c r="B87" s="68" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>827</v>
+        <v>624</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>438</v>
@@ -12691,29 +12690,29 @@
         <v>0</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="G87" s="49">
         <v>2</v>
       </c>
       <c r="H87" s="49">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I87" s="49">
         <f>(E87+H87+(IF(ISNUMBER(F87),10*(F87-1),0)))/G87</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="60"/>
       <c r="B88" s="68" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>650</v>
+        <v>827</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>438</v>
@@ -12722,160 +12721,159 @@
         <v>0</v>
       </c>
       <c r="F88" s="49" t="s">
-        <v>439</v>
+        <v>567</v>
       </c>
       <c r="G88" s="49">
         <v>2</v>
       </c>
       <c r="H88" s="49">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I88" s="49">
         <f>(E88+H88+(IF(ISNUMBER(F88),10*(F88-1),0)))/G88</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="60"/>
       <c r="B89" s="68" t="s">
-        <v>521</v>
+        <v>649</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>879</v>
+        <v>650</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="E89" s="49">
+        <v>0</v>
+      </c>
+      <c r="F89" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G89" s="49">
+        <v>2</v>
+      </c>
+      <c r="H89" s="49">
         <v>50</v>
-      </c>
-      <c r="F89" s="49">
-        <v>2</v>
-      </c>
-      <c r="G89" s="49">
-        <v>3</v>
-      </c>
-      <c r="H89" s="49">
-        <v>70</v>
       </c>
       <c r="I89" s="49">
         <f>(E89+H89+(IF(ISNUMBER(F89),10*(F89-1),0)))/G89</f>
-        <v>43.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="60"/>
       <c r="B90" s="68" t="s">
-        <v>619</v>
+        <v>521</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>701</v>
+        <v>879</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="49">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F90" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="49">
         <v>3</v>
       </c>
       <c r="H90" s="49">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I90" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>(E90+H90+(IF(ISNUMBER(F90),10*(F90-1),0)))/G90</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="60"/>
       <c r="B91" s="68" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>881</v>
+        <v>701</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="49">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F91" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="49">
         <v>3</v>
       </c>
       <c r="H91" s="49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I91" s="49">
-        <f t="shared" si="1"/>
-        <v>41.666666666666664</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="60"/>
       <c r="B92" s="68" t="s">
-        <v>757</v>
+        <v>657</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>544</v>
+        <v>881</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="49">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F92" s="49">
         <v>2</v>
       </c>
       <c r="G92" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92" s="49">
-        <f>E92/2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I92" s="49">
-        <f>(E92+H92+(IF(ISNUMBER(F92),10*(F92-1),0)))/G92</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>41.666666666666664</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="60"/>
       <c r="B93" s="68" t="s">
-        <v>543</v>
+        <v>757</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>895</v>
+        <v>544</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="49">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F93" s="49">
         <v>2</v>
@@ -12884,106 +12882,107 @@
         <v>2</v>
       </c>
       <c r="H93" s="49">
+        <f>E93/2</f>
+        <v>30</v>
+      </c>
+      <c r="I93" s="49">
+        <f>(E93+H93+(IF(ISNUMBER(F93),10*(F93-1),0)))/G93</f>
         <v>50</v>
-      </c>
-      <c r="I93" s="49">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="60"/>
       <c r="B94" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="49">
+        <v>45</v>
+      </c>
+      <c r="F94" s="49">
+        <v>2</v>
+      </c>
+      <c r="G94" s="49">
+        <v>2</v>
+      </c>
+      <c r="H94" s="49">
+        <v>50</v>
+      </c>
+      <c r="I94" s="49">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="60"/>
+      <c r="B95" s="68" t="s">
         <v>651</v>
       </c>
-      <c r="I94" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="I95" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="61" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="69" t="s">
+      <c r="B96" s="69" t="s">
         <v>642</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="49">
-        <v>50</v>
-      </c>
-      <c r="F95" s="49">
-        <v>1</v>
-      </c>
-      <c r="G95" s="49">
-        <v>1</v>
-      </c>
-      <c r="H95" s="49">
-        <v>0</v>
-      </c>
-      <c r="I95" s="49">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="69" t="s">
-        <v>486</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>438</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E96" s="49">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F96" s="49">
         <v>1</v>
       </c>
       <c r="G96" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="49">
         <v>0</v>
       </c>
       <c r="I96" s="49">
-        <f>(E96+H96+(IF(ISNUMBER(F96),10*(F96-1),0)))/G96</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="61"/>
       <c r="B97" s="69" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>438</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E97" s="49">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F97" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="49">
         <v>2</v>
@@ -12993,143 +12992,143 @@
       </c>
       <c r="I97" s="49">
         <f>(E97+H97+(IF(ISNUMBER(F97),10*(F97-1),0)))/G97</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="61"/>
       <c r="B98" s="69" t="s">
-        <v>823</v>
+        <v>488</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>824</v>
+        <v>438</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="E98" s="49">
+        <v>80</v>
+      </c>
+      <c r="F98" s="49">
+        <v>2</v>
+      </c>
+      <c r="G98" s="49">
+        <v>2</v>
+      </c>
+      <c r="H98" s="49">
         <v>0</v>
       </c>
-      <c r="F98" s="49" t="s">
-        <v>621</v>
-      </c>
-      <c r="G98" s="49">
-        <v>1</v>
-      </c>
-      <c r="H98" s="49">
-        <v>30</v>
-      </c>
       <c r="I98" s="49">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>(E98+H98+(IF(ISNUMBER(F98),10*(F98-1),0)))/G98</f>
+        <v>45</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="61"/>
       <c r="B99" s="69" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E99" s="49">
         <v>0</v>
       </c>
-      <c r="E99" s="49">
-        <v>80</v>
-      </c>
-      <c r="F99" s="49">
-        <v>1</v>
+      <c r="F99" s="49" t="s">
+        <v>621</v>
       </c>
       <c r="G99" s="49">
         <v>1</v>
       </c>
       <c r="H99" s="49">
-        <v>-40</v>
+        <v>30</v>
       </c>
       <c r="I99" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="61"/>
       <c r="B100" s="69" t="s">
-        <v>546</v>
+        <v>830</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>545</v>
+        <v>831</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E100" s="49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F100" s="49">
         <v>1</v>
       </c>
       <c r="G100" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="49">
-        <v>20</v>
+        <v>-40</v>
       </c>
       <c r="I100" s="49">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="61"/>
       <c r="B101" s="69" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E101" s="49">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F101" s="49">
         <v>1</v>
       </c>
       <c r="G101" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" s="49">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I101" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A102" s="61"/>
       <c r="B102" s="69" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>0</v>
@@ -13138,32 +13137,32 @@
         <v>40</v>
       </c>
       <c r="F102" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" s="49">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I102" s="49">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="61"/>
       <c r="B103" s="69" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E103" s="49">
         <v>40</v>
@@ -13175,32 +13174,32 @@
         <v>2</v>
       </c>
       <c r="H103" s="49">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I103" s="49">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="61"/>
       <c r="B104" s="69" t="s">
-        <v>704</v>
+        <v>574</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>749</v>
+        <v>575</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="49">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F104" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" s="49">
         <v>2</v>
@@ -13209,26 +13208,26 @@
         <v>50</v>
       </c>
       <c r="I104" s="49">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="61"/>
       <c r="B105" s="69" t="s">
-        <v>755</v>
+        <v>704</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="49" t="s">
-        <v>586</v>
+        <v>11</v>
+      </c>
+      <c r="E105" s="49">
+        <v>55</v>
       </c>
       <c r="F105" s="49">
         <v>1</v>
@@ -13236,500 +13235,500 @@
       <c r="G105" s="49">
         <v>2</v>
       </c>
-      <c r="I105" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="H105" s="49">
+        <v>50</v>
+      </c>
+      <c r="I105" s="49">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="61"/>
       <c r="B106" s="69" t="s">
-        <v>580</v>
+        <v>755</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>692</v>
+        <v>825</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="49">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="E106" s="49" t="s">
+        <v>586</v>
       </c>
       <c r="F106" s="49">
+        <v>1</v>
+      </c>
+      <c r="G106" s="49">
         <v>2</v>
       </c>
-      <c r="G106" s="49">
-        <v>3</v>
-      </c>
-      <c r="H106" s="49">
-        <v>40</v>
-      </c>
-      <c r="I106" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c r="I106" s="49" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="61"/>
       <c r="B107" s="69" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="49">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F107" s="49">
         <v>2</v>
       </c>
       <c r="G107" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" s="49">
-        <v>-20</v>
+        <v>40</v>
       </c>
       <c r="I107" s="49">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="61"/>
       <c r="B108" s="69" t="s">
-        <v>706</v>
+        <v>636</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E108" s="49">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F108" s="49">
         <v>2</v>
       </c>
       <c r="G108" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" s="49">
-        <v>60</v>
+        <v>-20</v>
       </c>
       <c r="I108" s="49">
-        <f t="shared" si="1"/>
-        <v>43.333333333333336</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="61"/>
       <c r="B109" s="69" t="s">
-        <v>561</v>
+        <v>706</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E109" s="49">
-        <v>0</v>
-      </c>
-      <c r="F109" s="49" t="s">
-        <v>567</v>
+        <v>60</v>
+      </c>
+      <c r="F109" s="49">
+        <v>2</v>
       </c>
       <c r="G109" s="49">
         <v>3</v>
       </c>
       <c r="H109" s="49">
+        <v>60</v>
+      </c>
+      <c r="I109" s="49">
+        <f t="shared" si="2"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="61"/>
+      <c r="B110" s="69" t="s">
+        <v>561</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="49">
+        <v>0</v>
+      </c>
+      <c r="F110" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="G110" s="49">
+        <v>3</v>
+      </c>
+      <c r="H110" s="49">
         <f>60*7</f>
         <v>420</v>
       </c>
-      <c r="I109" s="49">
-        <f t="shared" si="1"/>
+      <c r="I110" s="49">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J110" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
-      <c r="B110" s="69" t="s">
-        <v>708</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E110" s="49">
-        <v>0</v>
-      </c>
-      <c r="F110" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="G110" s="49">
-        <v>3</v>
-      </c>
-      <c r="H110" s="49">
-        <v>180</v>
-      </c>
-      <c r="I110" s="49">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A111" s="61"/>
       <c r="B111" s="69" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>699</v>
+        <v>850</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="E111" s="49">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F111" s="49" t="s">
         <v>586</v>
       </c>
       <c r="G111" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H111" s="49">
         <v>180</v>
       </c>
       <c r="I111" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="61"/>
+      <c r="B112" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="49">
+        <v>90</v>
+      </c>
+      <c r="F112" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="G112" s="49">
+        <v>4</v>
+      </c>
+      <c r="H112" s="49">
+        <v>180</v>
+      </c>
+      <c r="I112" s="49">
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J112" s="4" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="62" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="66" t="s">
+      <c r="B113" s="66" t="s">
         <v>509</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="49">
-        <v>55</v>
-      </c>
-      <c r="F112" s="49">
-        <v>2</v>
-      </c>
-      <c r="G112" s="49">
-        <v>1</v>
-      </c>
-      <c r="H112" s="49">
-        <v>0</v>
-      </c>
-      <c r="I112" s="49">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
-      <c r="B113" s="66" t="s">
-        <v>524</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>438</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E113" s="49">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F113" s="49">
         <v>2</v>
       </c>
       <c r="G113" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="49">
         <v>0</v>
       </c>
       <c r="I113" s="49">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="62"/>
       <c r="B114" s="66" t="s">
-        <v>630</v>
+        <v>524</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>631</v>
+        <v>438</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="49">
-        <v>40</v>
-      </c>
-      <c r="F114" s="49" t="s">
-        <v>586</v>
+        <v>80</v>
+      </c>
+      <c r="F114" s="49">
+        <v>2</v>
       </c>
       <c r="G114" s="49">
         <v>2</v>
       </c>
       <c r="H114" s="49">
-        <f>E114*3</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I114" s="49">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="62"/>
       <c r="B115" s="66" t="s">
-        <v>511</v>
+        <v>630</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>740</v>
+        <v>631</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="49">
-        <v>50</v>
-      </c>
-      <c r="F115" s="49">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F115" s="49" t="s">
+        <v>586</v>
       </c>
       <c r="G115" s="49">
         <v>2</v>
       </c>
       <c r="H115" s="49">
-        <v>30</v>
+        <f>E115*3</f>
+        <v>120</v>
       </c>
       <c r="I115" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="62"/>
       <c r="B116" s="66" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>478</v>
+        <v>740</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="49">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F116" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="49">
         <v>2</v>
       </c>
       <c r="H116" s="49">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I116" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="62"/>
       <c r="B117" s="66" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>832</v>
+        <v>478</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="49">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F117" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="49">
         <v>2</v>
       </c>
       <c r="H117" s="49">
+        <v>15</v>
+      </c>
+      <c r="I117" s="49">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I117" s="49">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
       <c r="J117" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="62"/>
       <c r="B118" s="66" t="s">
-        <v>430</v>
+        <v>667</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>431</v>
+        <v>832</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="E118" s="49">
-        <v>0</v>
-      </c>
-      <c r="F118" s="49" t="s">
-        <v>439</v>
+        <v>45</v>
+      </c>
+      <c r="F118" s="49">
+        <v>1</v>
       </c>
       <c r="G118" s="49">
         <v>2</v>
       </c>
       <c r="H118" s="49">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I118" s="49">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>42.5</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="62"/>
       <c r="B119" s="66" t="s">
-        <v>702</v>
+        <v>430</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="E119" s="49">
-        <v>55</v>
-      </c>
-      <c r="F119" s="49">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>439</v>
       </c>
       <c r="G119" s="49">
         <v>2</v>
       </c>
       <c r="H119" s="49">
+        <v>100</v>
+      </c>
+      <c r="I119" s="49">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="62"/>
+      <c r="B120" s="66" t="s">
+        <v>702</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="49">
+        <v>55</v>
+      </c>
+      <c r="F120" s="49">
+        <v>1</v>
+      </c>
+      <c r="G120" s="49">
+        <v>2</v>
+      </c>
+      <c r="H120" s="49">
         <v>60</v>
       </c>
-      <c r="I119" s="49">
-        <f t="shared" si="1"/>
+      <c r="I120" s="49">
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
-      <c r="J119" s="4" t="s">
+      <c r="J120" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="62"/>
-      <c r="B120" s="66"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="62"/>
-      <c r="B121" s="66" t="s">
-        <v>603</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E121" s="49">
-        <v>75</v>
-      </c>
-      <c r="F121" s="49">
-        <v>2</v>
-      </c>
-      <c r="G121" s="49">
-        <v>3</v>
-      </c>
-      <c r="H121" s="49">
-        <v>60</v>
-      </c>
-      <c r="I121" s="49">
-        <f t="shared" si="1"/>
-        <v>48.333333333333336</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="66"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="62"/>
       <c r="B122" s="66" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>847</v>
+        <v>602</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E122" s="49">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F122" s="49">
         <v>2</v>
@@ -13738,810 +13737,841 @@
         <v>3</v>
       </c>
       <c r="H122" s="49">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I122" s="49">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>48.333333333333336</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="62"/>
       <c r="B123" s="66" t="s">
-        <v>758</v>
+        <v>665</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E123" s="49">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F123" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="49">
         <v>3</v>
       </c>
       <c r="H123" s="49">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I123" s="49">
-        <f>(E123+H123+(IF(ISNUMBER(F123),10*(F123-1),0)))/G123</f>
-        <v>63.333333333333336</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="62"/>
       <c r="B124" s="66" t="s">
+        <v>758</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="49">
+        <v>95</v>
+      </c>
+      <c r="F124" s="49">
+        <v>1</v>
+      </c>
+      <c r="G124" s="49">
+        <v>3</v>
+      </c>
+      <c r="H124" s="49">
+        <v>95</v>
+      </c>
+      <c r="I124" s="49">
+        <f>(E124+H124+(IF(ISNUMBER(F124),10*(F124-1),0)))/G124</f>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="62"/>
+      <c r="B125" s="66" t="s">
         <v>566</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D125" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="49">
+      <c r="E125" s="49">
         <v>40</v>
       </c>
-      <c r="F124" s="49" t="s">
+      <c r="F125" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="G124" s="49">
+      <c r="G125" s="49">
         <v>4</v>
       </c>
-      <c r="H124" s="49">
+      <c r="H125" s="49">
         <f>16+(40*7)</f>
         <v>296</v>
       </c>
-      <c r="I124" s="49">
-        <f>(E124+H124+(IF(ISNUMBER(F124),10*(F124-1),0)))/G124</f>
+      <c r="I125" s="49">
+        <f>(E125+H125+(IF(ISNUMBER(F125),10*(F125-1),0)))/G125</f>
         <v>84</v>
       </c>
-      <c r="J124" s="4" t="s">
+      <c r="J125" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="62"/>
-      <c r="B125" s="66" t="s">
-        <v>601</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="49">
-        <v>80</v>
-      </c>
-      <c r="F125" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="G125" s="49">
-        <v>4</v>
-      </c>
-      <c r="H125" s="49">
-        <v>160</v>
-      </c>
-      <c r="I125" s="49">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="62"/>
       <c r="B126" s="66" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="49">
+        <v>80</v>
+      </c>
+      <c r="F126" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="G126" s="49">
+        <v>4</v>
+      </c>
+      <c r="H126" s="49">
+        <v>160</v>
+      </c>
+      <c r="I126" s="49">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="62"/>
       <c r="B127" s="66" t="s">
-        <v>756</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E127" s="49">
-        <v>0</v>
-      </c>
-      <c r="F127" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="I127" s="49" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="62"/>
       <c r="B128" s="66" t="s">
+        <v>756</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E128" s="49">
+        <v>0</v>
+      </c>
+      <c r="F128" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="I128" s="49" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A129" s="62"/>
+      <c r="B129" s="66" t="s">
         <v>648</v>
       </c>
-      <c r="I128" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="I129" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="50" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="N133" s="54"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="N134" s="54"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="E134" s="49" t="s">
+      <c r="E135" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J135" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="N134" s="54"/>
-    </row>
-    <row r="135" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B135" s="4" t="s">
+      <c r="N135" s="54"/>
+    </row>
+    <row r="136" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B136" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="J136" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="N135" s="54"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B136" s="4" t="s">
+      <c r="N136" s="54"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B137" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="N136" s="54"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B137" s="4" t="s">
+      <c r="N137" s="54"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B138" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="N137" s="54"/>
-    </row>
-    <row r="138" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="4" t="s">
+      <c r="N138" s="54"/>
+    </row>
+    <row r="139" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B139" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J139" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="N138" s="54"/>
-    </row>
-    <row r="139" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B139" s="4" t="s">
+      <c r="N139" s="54"/>
+    </row>
+    <row r="140" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B140" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="N139" s="54"/>
-    </row>
-    <row r="140" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B140" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>785</v>
       </c>
       <c r="N140" s="54"/>
     </row>
-    <row r="141" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B141" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="N141" s="54"/>
+    </row>
+    <row r="142" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B142" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C142" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J142" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="N141" s="54"/>
-    </row>
-    <row r="142" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B142" s="4" t="s">
+      <c r="N142" s="54"/>
+    </row>
+    <row r="143" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B143" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J143" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="N142" s="54"/>
-    </row>
-    <row r="143" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B143" s="4" t="s">
+      <c r="N143" s="54"/>
+    </row>
+    <row r="144" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B144" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J144" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="N143" s="54"/>
-    </row>
-    <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="s">
+      <c r="N144" s="54"/>
+    </row>
+    <row r="145" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B145" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C145" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="J144" s="4" t="s">
+      <c r="J145" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="N144" s="54"/>
-    </row>
-    <row r="145" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
+      <c r="N145" s="54"/>
+    </row>
+    <row r="146" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B146" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J146" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="N145" s="54"/>
-    </row>
-    <row r="146" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B146" s="4" t="s">
+      <c r="N146" s="54"/>
+    </row>
+    <row r="147" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B147" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C147" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J147" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="N146" s="54"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="s">
+      <c r="N147" s="54"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B148" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="N147" s="54"/>
-    </row>
-    <row r="148" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B148" s="4" t="s">
+      <c r="N148" s="54"/>
+    </row>
+    <row r="149" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B149" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C149" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="J148" s="4" t="s">
+      <c r="J149" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="N148" s="54"/>
-    </row>
-    <row r="149" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="4" t="s">
+      <c r="N149" s="54"/>
+    </row>
+    <row r="150" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B150" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C150" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J150" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="N149" s="54"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B150" s="4" t="s">
+      <c r="N150" s="54"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B151" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C151" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J151" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="N150" s="54"/>
-    </row>
-    <row r="151" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B151" s="4" t="s">
+      <c r="N151" s="54"/>
+    </row>
+    <row r="152" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B152" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J152" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="N151" s="54"/>
-    </row>
-    <row r="152" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B152" s="4" t="s">
+      <c r="N152" s="54"/>
+    </row>
+    <row r="153" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B153" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="J152" s="4" t="s">
+      <c r="J153" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="N152" s="54"/>
-    </row>
-    <row r="153" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="71"/>
-      <c r="B153" s="70" t="s">
-        <v>519</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>803</v>
-      </c>
       <c r="N153" s="54"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="71"/>
       <c r="B154" s="70" t="s">
-        <v>795</v>
+        <v>519</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>803</v>
       </c>
       <c r="N154" s="54"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" s="71"/>
       <c r="B155" s="70" t="s">
-        <v>526</v>
+        <v>795</v>
       </c>
       <c r="N155" s="54"/>
     </row>
-    <row r="156" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" s="71"/>
       <c r="B156" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>785</v>
+        <v>526</v>
       </c>
       <c r="N156" s="54"/>
     </row>
-    <row r="157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="71"/>
       <c r="B157" s="70" t="s">
+        <v>542</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="N157" s="54"/>
+    </row>
+    <row r="158" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="71"/>
+      <c r="B158" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="J157" s="4" t="s">
+      <c r="J158" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="71"/>
-      <c r="B158" s="70"/>
-      <c r="N158" s="54"/>
-    </row>
-    <row r="159" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" s="71"/>
-      <c r="B159" s="70" t="s">
-        <v>503</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>798</v>
-      </c>
+      <c r="B159" s="70"/>
       <c r="N159" s="54"/>
     </row>
-    <row r="160" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="71"/>
       <c r="B160" s="70" t="s">
-        <v>765</v>
+        <v>503</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>766</v>
+        <v>628</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="N160" s="54"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="71"/>
       <c r="B161" s="70" t="s">
-        <v>527</v>
+        <v>765</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="N161" s="54"/>
     </row>
-    <row r="162" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" s="71"/>
       <c r="B162" s="70" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="N162" s="54"/>
     </row>
-    <row r="163" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A163" s="71"/>
       <c r="B163" s="70" t="s">
-        <v>772</v>
+        <v>516</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="N163" s="54"/>
     </row>
-    <row r="164" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="71"/>
       <c r="B164" s="70" t="s">
-        <v>578</v>
+        <v>772</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>579</v>
+        <v>773</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>785</v>
       </c>
       <c r="N164" s="54"/>
     </row>
-    <row r="165" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="71"/>
       <c r="B165" s="70" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>805</v>
+        <v>579</v>
       </c>
       <c r="J165" s="4" t="s">
         <v>785</v>
       </c>
       <c r="N165" s="54"/>
     </row>
-    <row r="166" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="71"/>
       <c r="B166" s="70" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>717</v>
+        <v>785</v>
       </c>
       <c r="N166" s="54"/>
     </row>
-    <row r="167" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="71"/>
       <c r="B167" s="70" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>769</v>
+        <v>808</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N167" s="54"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A168" s="71"/>
       <c r="B168" s="70" t="s">
+        <v>518</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="N168" s="54"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A169" s="71"/>
+      <c r="B169" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="N168" s="54"/>
-    </row>
-    <row r="169" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B169" s="4" t="s">
+      <c r="N169" s="54"/>
+    </row>
+    <row r="170" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B170" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="J169" s="4" t="s">
+      <c r="J170" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B170" s="4" t="s">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B171" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B171" s="4" t="s">
+    <row r="172" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="B172" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C172" s="5" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B172" s="4" t="s">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B173" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B173" s="4" t="s">
+    <row r="174" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B174" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="50" t="s">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A175" s="50" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B176" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B176" s="4" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B177" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C177" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="4" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B178" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C178" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B178" s="4" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B179" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B179" s="4" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B180" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C180" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="4" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B181" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B181" s="4" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B182" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B182" s="4" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B183" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C183" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B183" s="4" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B184" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B184" s="4" t="s">
+    <row r="185" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B185" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C185" s="5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B185" s="4" t="s">
+    <row r="186" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B186" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C186" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="4" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B187" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C187" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="57" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B187" s="64" t="s">
+      <c r="B188" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D188" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E187" s="49">
+      <c r="E188" s="49">
         <v>135</v>
       </c>
-      <c r="G187" s="49">
+      <c r="G188" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A188" s="57"/>
-      <c r="B188" s="64" t="s">
+    <row r="189" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="57"/>
+      <c r="B189" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C189" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E188" s="49">
-        <v>25</v>
-      </c>
-      <c r="G188" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189" s="63" t="s">
-        <v>483</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="49">
+        <v>25</v>
+      </c>
+      <c r="G189" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A190" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="49">
         <v>120</v>
-      </c>
-      <c r="G189" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190" s="63" t="s">
-        <v>485</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E190" s="49">
-        <v>140</v>
       </c>
       <c r="G190" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="60"/>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="59" t="s">
+        <v>189</v>
+      </c>
       <c r="B191" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="49">
+        <v>140</v>
+      </c>
+      <c r="G191" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="60"/>
+      <c r="B192" s="63" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="60" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="B192" s="63" t="s">
+      <c r="B193" s="63" t="s">
         <v>482</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D193" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E192" s="49">
+      <c r="E193" s="49">
         <v>135</v>
-      </c>
-      <c r="G192" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="B193" s="63" t="s">
-        <v>481</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E193" s="49">
-        <v>140</v>
       </c>
       <c r="G193" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="62" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B194" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="49">
+        <v>140</v>
+      </c>
+      <c r="G194" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B194" s="63"/>
-      <c r="D194" s="6" t="s">
+      <c r="B195" s="63"/>
+      <c r="D195" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E194" s="49">
+      <c r="E195" s="49">
         <v>135</v>
       </c>
-      <c r="G194" s="49">
+      <c r="G195" s="49">
         <v>4</v>
       </c>
     </row>
@@ -14560,20 +14590,20 @@
       <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="21" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="10.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="7" width="10.81640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>157</v>
       </c>
@@ -14599,7 +14629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -14622,7 +14652,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>87</v>
       </c>
@@ -14642,7 +14672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -14665,21 +14695,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>81</v>
       </c>
@@ -14696,7 +14726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="E9" s="6" t="s">
         <v>0</v>
@@ -14705,7 +14735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="E10" s="6" t="s">
         <v>0</v>
@@ -14714,7 +14744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="E11" s="6" t="s">
         <v>0</v>
@@ -14723,7 +14753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -14743,7 +14773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -14763,7 +14793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -14783,7 +14813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
@@ -14803,7 +14833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -14826,7 +14856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -14849,7 +14879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
@@ -14872,7 +14902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
@@ -14895,7 +14925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
@@ -14918,7 +14948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -14941,7 +14971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -14964,7 +14994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
@@ -14987,7 +15017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
@@ -15010,7 +15040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
@@ -15033,7 +15063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
@@ -15056,7 +15086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
@@ -15079,7 +15109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
@@ -15088,7 +15118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
@@ -15097,7 +15127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>9</v>
       </c>
@@ -15120,7 +15150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
@@ -15143,7 +15173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
@@ -15169,7 +15199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -15192,7 +15222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -15215,7 +15245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
@@ -15238,7 +15268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
@@ -15258,7 +15288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
@@ -15281,7 +15311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
@@ -15304,7 +15334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>87</v>
       </c>
@@ -15327,7 +15357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>55</v>
       </c>
@@ -15350,7 +15380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
@@ -15373,7 +15403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
@@ -15396,7 +15426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>55</v>
       </c>
@@ -15419,7 +15449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>185</v>
       </c>
@@ -15442,7 +15472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>9</v>
       </c>
@@ -15465,7 +15495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>888</v>
       </c>
@@ -15488,7 +15518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
@@ -15511,7 +15541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>9</v>
       </c>
@@ -15537,7 +15567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
@@ -15563,12 +15593,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>87</v>
       </c>
@@ -15588,7 +15618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>184</v>
       </c>
@@ -15608,7 +15638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>184</v>
       </c>
@@ -15628,25 +15658,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="G56" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="G57" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="G58" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>118</v>
       </c>
@@ -15669,16 +15699,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B60" s="81"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>9</v>
       </c>
@@ -15698,7 +15728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>87</v>
       </c>
@@ -15718,7 +15748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
@@ -15741,13 +15771,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B65" s="12"/>
       <c r="G65" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>9</v>
       </c>
@@ -15771,7 +15801,7 @@
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>9</v>
       </c>
@@ -15791,7 +15821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>9</v>
       </c>
@@ -15814,12 +15844,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>87</v>
       </c>
@@ -15839,7 +15869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>1</v>
       </c>
@@ -15859,12 +15889,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B73" s="12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -15887,7 +15917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>1</v>
       </c>
@@ -15910,7 +15940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
@@ -15933,7 +15963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>1</v>
       </c>
@@ -15956,7 +15986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>6</v>
       </c>
@@ -15979,7 +16009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
@@ -16002,31 +16032,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="48"/>
       <c r="B82" s="12"/>
       <c r="G82" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="12"/>
       <c r="G83" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B84" s="12"/>
       <c r="G84" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>109</v>
       </c>
@@ -16049,31 +16079,31 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
       <c r="G86" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A88" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="48"/>
       <c r="B89" s="12"/>
       <c r="G89" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
       <c r="G90" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>9</v>
       </c>
@@ -16096,7 +16126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>9</v>
       </c>
@@ -16119,25 +16149,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B93" s="12"/>
       <c r="G93" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A95" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="48"/>
       <c r="B96" s="12"/>
       <c r="G96" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>185</v>
       </c>
@@ -16160,13 +16190,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B98" s="12"/>
       <c r="G98" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" s="12" t="s">
         <v>883</v>
       </c>
@@ -16186,7 +16216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>9</v>
       </c>
@@ -16223,64 +16253,64 @@
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="2" max="2" width="11.1796875" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="16" t="s">
         <v>130</v>
@@ -16289,7 +16319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="16" t="s">
         <v>131</v>
@@ -16298,7 +16328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="16" t="s">
         <v>132</v>
@@ -16307,7 +16337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="16" t="s">
         <v>133</v>
@@ -16316,7 +16346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
         <v>134</v>
@@ -16325,7 +16355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
         <v>135</v>
@@ -16334,159 +16364,159 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B48" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B53" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>428</v>
       </c>
@@ -16505,24 +16535,24 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>360</v>
       </c>
@@ -16530,12 +16560,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -16543,22 +16573,22 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>360</v>
       </c>
@@ -16566,12 +16596,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="30" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -16579,17 +16609,17 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -16597,12 +16627,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>378</v>
       </c>
@@ -16610,17 +16640,17 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>360</v>
       </c>
@@ -16628,7 +16658,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>378</v>
       </c>
@@ -16636,12 +16666,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>360</v>
       </c>
@@ -16649,17 +16679,17 @@
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>378</v>
       </c>
@@ -16667,22 +16697,22 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -16690,12 +16720,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>378</v>
       </c>
@@ -16703,17 +16733,17 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>360</v>
       </c>
@@ -16721,17 +16751,17 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>378</v>
       </c>
@@ -16739,22 +16769,22 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>360</v>
       </c>
@@ -16762,17 +16792,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>378</v>
       </c>
